--- a/Results.xlsx
+++ b/Results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Hyperparamters</t>
   </si>
@@ -46,6 +46,9 @@
     <t>2,4,8,16</t>
   </si>
   <si>
+    <t>2,4,7,9</t>
+  </si>
+  <si>
     <t>Num_filters</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -69,9 +72,6 @@
     <font>
       <b/>
       <sz val="12.0"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="5">
@@ -106,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -128,9 +128,6 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -147,6 +144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -202,7 +200,9 @@
       <c r="O1" s="1">
         <v>14.0</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="1">
+        <v>15.0</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -288,7 +288,9 @@
       <c r="O3" s="1">
         <v>300.0</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="1">
+        <v>300.0</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -346,7 +348,9 @@
       <c r="O4" s="1">
         <v>150.0</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="1">
+        <v>150.0</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -404,7 +408,9 @@
       <c r="O5" s="1">
         <v>64.0</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="1">
+        <v>64.0</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -462,7 +468,9 @@
       <c r="O6" s="1">
         <v>0.01</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="1">
+        <v>0.01</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -520,7 +528,9 @@
       <c r="O7" s="1">
         <v>512.0</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="1">
+        <v>512.0</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -578,7 +588,9 @@
       <c r="O8" s="1">
         <v>0.005</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="1">
+        <v>0.005</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -636,7 +648,9 @@
       <c r="O9" s="1">
         <v>50.0</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="1">
+        <v>50.0</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -688,13 +702,15 @@
       <c r="M10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -708,7 +724,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>10.0</v>
@@ -746,13 +762,15 @@
       <c r="M11" s="4">
         <v>4.0</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>8.0</v>
       </c>
       <c r="O11" s="1">
         <v>8.0</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="1">
+        <v>8.0</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -794,7 +812,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0.82773</v>
@@ -838,7 +856,9 @@
       <c r="O13" s="1">
         <v>0.999</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="1">
+        <v>0.9997</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -852,7 +872,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0.6756</v>
@@ -896,7 +916,9 @@
       <c r="O14" s="1">
         <v>0.7046</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="1">
+        <v>0.7234</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -28545,6 +28567,9 @@
       <c r="Z1001" s="2"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>